--- a/xxxxx.xlsx
+++ b/xxxxx.xlsx
@@ -14,40 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="33">
-  <si>
-    <t>column1</t>
-  </si>
-  <si>
-    <t>column_pageviews_1</t>
-  </si>
-  <si>
-    <t>column_page_views_2</t>
-  </si>
-  <si>
-    <t>column_unique_vistors_1</t>
-  </si>
-  <si>
-    <t>column_unique_vistors_2</t>
-  </si>
-  <si>
-    <t>column_total_time_spent_1</t>
-  </si>
-  <si>
-    <t>column_total_time_spent_2</t>
-  </si>
-  <si>
-    <t>column_visits_1</t>
-  </si>
-  <si>
-    <t>column_visits_2</t>
-  </si>
-  <si>
-    <t>column_average_time_spent_on_site_1</t>
-  </si>
-  <si>
-    <t>column_average_time_spent_on_site_2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="22">
   <si>
     <t>2021/01/01</t>
   </si>
@@ -477,37 +444,37 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="1">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="1">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="1">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="1">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="1">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="1">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="1">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="K1" s="1">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1">
         <v>10</v>
       </c>
     </row>
@@ -516,7 +483,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -524,37 +491,37 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K3" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L3" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -562,37 +529,37 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="I4" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K4" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -600,37 +567,37 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="J5" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="K5" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="L5" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -638,34 +605,34 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K6" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L6" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -673,34 +640,34 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="I7" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K7" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -708,37 +675,37 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" t="s">
         <v>21</v>
       </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" t="s">
-        <v>32</v>
-      </c>
       <c r="L8" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -746,34 +713,34 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I9" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J9" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K9" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L9" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -781,34 +748,34 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K10" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -816,37 +783,37 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
         <v>16</v>
       </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" t="s">
-        <v>27</v>
-      </c>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I11" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="J11" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="L11" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
